--- a/aux data/DZS/Mortality Table for Import.xlsx
+++ b/aux data/DZS/Mortality Table for Import.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikap\Documents\Edukacija\Aktuarstvo\Zavrsni rad\DZS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikap\Documents\Edukacija\Aktuarstvo\Zavrsni rad\Code Repository\Zavrsni-rad\aux data\DZS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25128" windowHeight="12312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25128" windowHeight="12312" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Men" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="24">
   <si>
     <t>age</t>
   </si>
@@ -73,6 +73,33 @@
   <si>
     <t>crude probabilities of dying</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total_old</t>
+  </si>
+  <si>
+    <t>NEW!</t>
+  </si>
+  <si>
+    <t>OLD!</t>
+  </si>
+  <si>
+    <t>!NOVO</t>
+  </si>
+  <si>
+    <t>!U tablici velika greska s podacima, uzela sam ranije podatke od 0-te godine</t>
+  </si>
+  <si>
+    <t>Populacijski totali neovisno o dobi</t>
+  </si>
+  <si>
+    <t>20-64/total</t>
+  </si>
+  <si>
+    <t>65/total</t>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +126,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,10 +158,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5939,8 +5976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:C107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9390,7 +9427,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11245,14 +11282,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" customWidth="1"/>
@@ -11262,104 +11300,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f>SUMIF(Men!$A$2:$A$107,"&lt;65",Men!B2:B107)</f>
         <v>3543051</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <f>SUMIF(Men!$A$2:$A$107,"&lt;65",Men!C2:C107)</f>
         <v>14347</v>
       </c>
-      <c r="D3">
-        <f>ROUND(C3/B3,6)</f>
+      <c r="D4">
+        <f>ROUND(C4/B4,6)</f>
         <v>4.0489999999999996E-3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <f>SUMIF(Women!$A$2:$A$107,"&lt;65",Women!B2:B107)</f>
         <v>3509124</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <f>SUMIF(Women!$A$2:$A$107,"&lt;65",Women!C2:C107)</f>
         <v>6176</v>
       </c>
-      <c r="H3">
-        <f>ROUND(G3/F3,6)</f>
+      <c r="H4">
+        <f>ROUND(G4/F4,6)</f>
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>SUMIF(Men!$A$2:$A$107,"&gt;=65",Men!B2:B107)</f>
         <v>615240</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f>SUMIF(Men!$A$2:$A$107,"&gt;=65",Men!C2:C107)</f>
         <v>36626</v>
       </c>
-      <c r="D4">
-        <f>ROUND(C4/B4,6)</f>
+      <c r="D5">
+        <f>ROUND(C5/B5,6)</f>
         <v>5.9531000000000001E-2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <f>SUMIF(Women!$A$2:$A$107,"&gt;=65",Women!B2:B107)</f>
         <v>952897</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <f>SUMIF(Women!$A$2:$A$107,"&gt;=65",Women!C2:C107)</f>
         <v>46329</v>
       </c>
-      <c r="H4">
-        <f>ROUND(G4/F4,6)</f>
+      <c r="H5">
+        <f>ROUND(G5/F5,6)</f>
         <v>4.8619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <f>SUMIF(Men!$A$22:$A$107,"&lt;65",Men!B22:B107)</f>
+        <v>2626074</v>
+      </c>
+      <c r="C10">
+        <f>SUMIF(Men!$A$22:$A$107,"&lt;65",Men!C22:C107)</f>
+        <v>14000</v>
+      </c>
+      <c r="D10">
+        <f>ROUND(C10/B10,6)</f>
+        <v>5.3309999999999998E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <f>SUMIF(Women!$A$22:$A$107,"&lt;65",Women!B22:B107)</f>
+        <v>2637736</v>
+      </c>
+      <c r="G10">
+        <f>SUMIF(Women!$A$22:$A$107,"&lt;65",Women!C22:C107)</f>
+        <v>5962</v>
+      </c>
+      <c r="H10">
+        <f>ROUND(G10/F10,6)</f>
+        <v>2.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f>SUMIF(Men!$A$2:$A$107,"&gt;=65",Men!B2:B107)</f>
+        <v>615240</v>
+      </c>
+      <c r="C11">
+        <f>SUMIF(Men!$A$2:$A$107,"&gt;=65",Men!C2:C107)</f>
+        <v>36626</v>
+      </c>
+      <c r="D11">
+        <f>ROUND(C11/B11,6)</f>
+        <v>5.9531000000000001E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <f>SUMIF(Women!$A$2:$A$107,"&gt;=65",Women!B2:B107)</f>
+        <v>952897</v>
+      </c>
+      <c r="G11">
+        <f>SUMIF(Women!$A$2:$A$107,"&gt;=65",Women!C2:C107)</f>
+        <v>46329</v>
+      </c>
+      <c r="H11">
+        <f>ROUND(G11/F11,6)</f>
+        <v>4.8619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f>B4+F4</f>
+        <v>7052175</v>
+      </c>
+      <c r="C15">
+        <f>C4+G4</f>
+        <v>20523</v>
+      </c>
+      <c r="D15">
+        <f>ROUND(C15/B15,6)</f>
+        <v>2.9099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f>B5+F5</f>
+        <v>1568137</v>
+      </c>
+      <c r="C16">
+        <f>C5+G5</f>
+        <v>82955</v>
+      </c>
+      <c r="D16">
+        <f>ROUND(C16/B16,6)</f>
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <f>B10+F10</f>
+        <v>5263810</v>
+      </c>
+      <c r="C22">
+        <f>C10+G10</f>
+        <v>19962</v>
+      </c>
+      <c r="D22">
+        <f>ROUND(C22/B22,6)</f>
+        <v>3.7919999999999998E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <f>B5+F5</f>
+        <v>1568137</v>
+      </c>
+      <c r="C23">
+        <f>C5+G5</f>
+        <v>82955</v>
+      </c>
+      <c r="D23">
+        <f>ROUND(C23/B23,6)</f>
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>B22+B23</f>
+        <v>6831947</v>
+      </c>
+      <c r="C26">
+        <f>C22+C23</f>
+        <v>102917</v>
+      </c>
+      <c r="D26">
+        <f>ROUND(C26/B26,6)</f>
+        <v>1.5063999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <f>ROUND(D22/D26,6)</f>
+        <v>0.25172600000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <f>ROUND(D23/D26,6)</f>
+        <v>3.5116830000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>